--- a/Analisis/DiccionarioDeDatos.xlsx
+++ b/Analisis/DiccionarioDeDatos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>BASE DE DATOS</t>
   </si>
@@ -42,16 +42,124 @@
     <t>coserie, conumero</t>
   </si>
   <si>
-    <t>LLAVE DE LA COTIZACION (BASENEXT VS. VENTAS)</t>
-  </si>
-  <si>
     <t>ruc_dni</t>
   </si>
   <si>
     <t>OBSERVACION</t>
   </si>
   <si>
-    <t>NO SE CONSIDERARA</t>
+    <t>contacto</t>
+  </si>
+  <si>
+    <t>No existe en la BaseNext</t>
+  </si>
+  <si>
+    <t>codcliente, codareacliente</t>
+  </si>
+  <si>
+    <t>Llave de la cotizacion (BaseNext vs. Ventas)</t>
+  </si>
+  <si>
+    <t>Llave de la cliente (BaseNext vs. Ventas)</t>
+  </si>
+  <si>
+    <t>direccion, email</t>
+  </si>
+  <si>
+    <t>codpaiscontacto, ubigeo, codpostal</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>anexo, celular, areacontacto</t>
+  </si>
+  <si>
+    <t>No se consideraran</t>
+  </si>
+  <si>
+    <t>codtipoentrega</t>
+  </si>
+  <si>
+    <t>Codigo del tipo de entrega en BaseNext</t>
+  </si>
+  <si>
+    <t>cargocontacto, fax, codpaisorigen, ciudadorigen, puertoorigen, obsorigen, transporteorigen, codpaisdestino, ciudaddestino, puertodestino, transportedestino, obsdestino, obscotizacion</t>
+  </si>
+  <si>
+    <t>codnegocio</t>
+  </si>
+  <si>
+    <t>Se consideraran solo a Mensajeria = '01' y Courier = '11'</t>
+  </si>
+  <si>
+    <t>codambito</t>
+  </si>
+  <si>
+    <t>Se consideraran solo a Local = '01' y Nacional = '02'</t>
+  </si>
+  <si>
+    <t>codservicio</t>
+  </si>
+  <si>
+    <t>Servicios de la BaseNext</t>
+  </si>
+  <si>
+    <t>codproducto</t>
+  </si>
+  <si>
+    <t>Productos de la BaseNext</t>
+  </si>
+  <si>
+    <t>peso</t>
+  </si>
+  <si>
+    <t>Se asocia con la tabla t_cotizapeso</t>
+  </si>
+  <si>
+    <t>pesoapox, pesototal</t>
+  </si>
+  <si>
+    <t>preciounitario, preciototal, descuento, montoneto, porcentaje, moneda</t>
+  </si>
+  <si>
+    <t>montopagar, flete, desaduanaje, seguro, comision</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>cntposiciones, cntunidades, cntpersonas, unidadmedida, largo, ancho, alto, volumen, numerodias</t>
+  </si>
+  <si>
+    <t>reserie, renumro</t>
+  </si>
+  <si>
+    <t>tipoproducto</t>
+  </si>
+  <si>
+    <t>Tipos, MUESTRA = 'M', DOCUMENTO = 'D'</t>
+  </si>
+  <si>
+    <t>rutaimagen, producto, obsproducto, codencuesta, imo, umm, serie, orden</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>empresa, usuario</t>
+  </si>
+  <si>
+    <t>fecha, usuariomod, fechamod</t>
+  </si>
+  <si>
+    <t>Datos del registro</t>
+  </si>
+  <si>
+    <t>Cuales son los estados?</t>
+  </si>
+  <si>
+    <t>Por consultar</t>
   </si>
 </sst>
 </file>
@@ -121,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,6 +239,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,19 +576,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -494,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -504,20 +615,350 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="75">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30">
+      <c r="C24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="C26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="C27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="C32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
